--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1534.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1534.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.784215218842889</v>
+        <v>1.639840960502625</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.195481061935425</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>5.078707218170166</v>
       </c>
       <c r="D1">
-        <v>0.9710659722884971</v>
+        <v>1.417985081672668</v>
       </c>
       <c r="E1">
-        <v>0.6292091398408471</v>
+        <v>0.8301410675048828</v>
       </c>
     </row>
   </sheetData>
